--- a/portfolios/sml_equity/profit_reports/trend/Breakout_overall.xlsx
+++ b/portfolios/sml_equity/profit_reports/trend/Breakout_overall.xlsx
@@ -465,46 +465,46 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2">
-        <v>6395</v>
+        <v>3923</v>
       </c>
       <c r="B2">
-        <v>6489</v>
+        <v>5069</v>
       </c>
       <c r="C2">
-        <v>12884</v>
+        <v>8992</v>
       </c>
       <c r="D2">
-        <v>1861.937576270074</v>
+        <v>3159.04890750022</v>
       </c>
       <c r="E2">
-        <v>-1206.632181020843</v>
+        <v>-1493.329938260623</v>
       </c>
       <c r="F2">
-        <v>0.1860246394642292</v>
+        <v>0.3157816541360874</v>
       </c>
       <c r="G2">
-        <v>-0.1199464665125474</v>
+        <v>-0.1484917256038622</v>
       </c>
       <c r="H2">
-        <v>0.03192292363969452</v>
+        <v>0.05405992794593976</v>
       </c>
       <c r="I2">
-        <v>11907090.80024717</v>
+        <v>12392948.86412337</v>
       </c>
       <c r="J2">
-        <v>-7829836.222644266</v>
+        <v>-7569689.457043095</v>
       </c>
       <c r="K2">
-        <v>0.4963520645762186</v>
+        <v>0.4362766903914591</v>
       </c>
       <c r="L2">
-        <v>1.543086290550303</v>
+        <v>2.115439345694607</v>
       </c>
       <c r="M2">
-        <v>1.520733060266482</v>
+        <v>1.637180618102181</v>
       </c>
       <c r="N2">
-        <v>4077254.577602901</v>
+        <v>4823259.40708028</v>
       </c>
     </row>
   </sheetData>
